--- a/output/cold_start_results.xlsx
+++ b/output/cold_start_results.xlsx
@@ -1,111 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
-  <si>
-    <t>MostPop</t>
-  </si>
-  <si>
-    <t>ETeR-X</t>
-  </si>
-  <si>
-    <t>USEM</t>
-  </si>
-  <si>
-    <t>BERT</t>
-  </si>
-  <si>
-    <t>Set</t>
-  </si>
-  <si>
-    <t>Subset</t>
-  </si>
-  <si>
-    <t>Metric</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>POI</t>
-  </si>
-  <si>
-    <t>RST</t>
-  </si>
-  <si>
-    <t>MSC</t>
-  </si>
-  <si>
-    <t>FSH</t>
-  </si>
-  <si>
-    <t>BCN</t>
-  </si>
-  <si>
-    <t>MDR</t>
-  </si>
-  <si>
-    <t>NYC</t>
-  </si>
-  <si>
-    <t>PRS</t>
-  </si>
-  <si>
-    <t>LND</t>
-  </si>
-  <si>
-    <t>GJN</t>
-  </si>
-  <si>
-    <t>NDCG@10</t>
-  </si>
-  <si>
-    <t>Recall@10</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -114,18 +46,30 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -133,16 +77,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -430,540 +441,638 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Set</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Subset</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Metric</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>MostPop</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>ETeR-X</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>USEM</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>BERT</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AM</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>0.05167965590953827</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.3729475140571594</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.05214429274201393</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.05191774293780327</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3">
+    <row r="3">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>0.09593396633863449</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.4816994667053223</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.09600162506103516</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.09586631506681442</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4">
+    <row r="4">
+      <c r="A4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>FSH</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>0.03527610376477242</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.4013559222221375</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.03426813334226608</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.03665235638618469</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0.07560849189758301</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.5591662526130676</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.07780942320823669</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.08551269024610519</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>POI</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>BCN</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>0.5049448609352112</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.8469889163970947</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.8601682782173157</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.8583686947822571</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7">
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>0.7446883916854858</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.9553824067115784</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.9532577991485596</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.9536119103431702</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8">
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.3956058621406555</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.8469286561012268</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.8521946668624878</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.8669675588607788</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>0.6371660232543945</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.9558683037757874</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.9482347369194031</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.9525286555290222</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>0.4460505843162537</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.8395645618438721</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.8692641258239746</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.8717240691184998</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="1" t="n"/>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>0.710125744342804</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.9609529972076416</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.974189281463623</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.9682329297065735</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12">
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>0.5675419569015503</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.8840547204017639</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>0.9004984498023987</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0.9009535312652588</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13">
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>0.8149812817573547</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>0.9760299921035767</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>0.9760299921035767</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0.9820224642753601</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14">
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>LND</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>0.4109925329685211</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.8616696000099182</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>0.8822371959686279</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0.8865099549293518</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15">
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="1" t="n"/>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>0.6861435770988464</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>0.9674457311630249</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>0.9641068577766418</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>0.9641068577766418</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RST</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>GJN</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>0.179208055138588</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>0.5060648918151855</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>0.5181587934494019</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>0.5249014496803284</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17">
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="1" t="n"/>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>0.2882273197174072</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.6698240637779236</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>0.6549391150474548</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>0.6820027232170105</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>BCN</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>0.02439447306096554</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>0.38161700963974</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>0.4006761610507965</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0.4277211129665375</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19">
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="1" t="n"/>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>0.04632839560508728</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>0.5127639174461365</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>0.5203277468681335</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>0.5649753212928772</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>MDR</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>0.04089365527033806</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.4352207183837891</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>0.4265748262405396</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>0.4336481690406799</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21">
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>0.07748548686504364</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.5637295842170715</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>0.5520464181900024</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>0.59531170129776</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22">
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>NYC</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>0.05853383988142014</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>0.4960165321826935</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>0.5287386178970337</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>0.5182593464851379</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23">
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>0.09956903755664825</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>0.6224995851516724</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>0.6522198915481567</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>0.6814929246902466</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24">
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>PRS</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>NDCG@10</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>0.01989926025271416</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>0.3063552677631378</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>0.3260668218135834</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>0.3169974684715271</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25">
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Recall@10</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>0.03672259673476219</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>0.4099955856800079</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>0.4283368587493896</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>0.4675022959709167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B22:B23"/>
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="A6:A15"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/cold_start_results.xlsx
+++ b/output/cold_start_results.xlsx
@@ -1,43 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
+  <si>
+    <t>MostPop</t>
+  </si>
+  <si>
+    <t>ETeR-X</t>
+  </si>
+  <si>
+    <t>USEM</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>Subset</t>
+  </si>
+  <si>
+    <t>Metric</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>MSC</t>
+  </si>
+  <si>
+    <t>FSH</t>
+  </si>
+  <si>
+    <t>BCN</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>PRS</t>
+  </si>
+  <si>
+    <t>LND</t>
+  </si>
+  <si>
+    <t>GJN</t>
+  </si>
+  <si>
+    <t>NDCG@10</t>
+  </si>
+  <si>
+    <t>Recall@10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,30 +114,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -77,83 +133,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -441,638 +430,540 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Set</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Subset</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Metric</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MostPop</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ETeR-X</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>USEM</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>BERT</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>AM</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>MSC</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2">
         <v>0.05167965590953827</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.3729475140571594</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>0.05214429274201393</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>0.05191774293780327</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3">
         <v>0.09593396633863449</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.4816994667053223</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>0.09600162506103516</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>0.09586631506681442</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>FSH</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>0.03527610376477242</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.4013559222221375</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>0.03426813334226608</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>0.03665235638618469</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5">
         <v>0.07560849189758301</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.5591662526130676</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>0.07780942320823669</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>0.08551269024610519</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>POI</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>BCN</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
         <v>0.5049448609352112</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.8469889163970947</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>0.8601682782173157</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>0.8583686947822571</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
         <v>0.7446883916854858</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.9553824067115784</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>0.9532577991485596</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>0.9536119103431702</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>MDR</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8">
         <v>0.3956058621406555</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.8469286561012268</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>0.8521946668624878</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>0.8669675588607788</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
         <v>0.6371660232543945</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.9558683037757874</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>0.9482347369194031</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>0.9525286555290222</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10">
         <v>0.4460505843162537</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.8395645618438721</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>0.8692641258239746</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>0.8717240691184998</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11">
         <v>0.710125744342804</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.9609529972076416</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>0.974189281463623</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>0.9682329297065735</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>PRS</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
         <v>0.5675419569015503</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.8840547204017639</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>0.9004984498023987</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>0.9009535312652588</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13">
         <v>0.8149812817573547</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.9760299921035767</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>0.9760299921035767</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>0.9820224642753601</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>LND</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14">
         <v>0.4109925329685211</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.8616696000099182</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>0.8822371959686279</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>0.8865099549293518</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
         <v>0.6861435770988464</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.9674457311630249</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>0.9641068577766418</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>0.9641068577766418</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>RST</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>GJN</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16">
         <v>0.179208055138588</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.5060648918151855</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>0.5181587934494019</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>0.5249014496803284</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17">
         <v>0.2882273197174072</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.6698240637779236</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>0.6549391150474548</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>0.6820027232170105</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>BCN</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
         <v>0.02439447306096554</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.38161700963974</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>0.4006761610507965</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>0.4277211129665375</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19">
         <v>0.04632839560508728</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.5127639174461365</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>0.5203277468681335</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>0.5649753212928772</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>MDR</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20">
         <v>0.04089365527033806</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.4352207183837891</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>0.4265748262405396</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>0.4336481690406799</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21">
         <v>0.07748548686504364</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.5637295842170715</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>0.5520464181900024</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>0.59531170129776</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>NYC</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
         <v>0.05853383988142014</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.4960165321826935</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>0.5287386178970337</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>0.5182593464851379</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23">
         <v>0.09956903755664825</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.6224995851516724</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>0.6522198915481567</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>0.6814929246902466</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>PRS</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>NDCG@10</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
         <v>0.01989926025271416</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.3063552677631378</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>0.3260668218135834</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>0.3169974684715271</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>Recall@10</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25">
         <v>0.03672259673476219</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.4099955856800079</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>0.4283368587493896</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>0.4675022959709167</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A15"/>
+    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
     <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A16:A25"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A6:A15"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>